--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +30,6 @@
   </si>
   <si>
     <t>改进后的Fish Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改进后的组合算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,6 +48,13 @@
     <t>结合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>基于改进后Fish Search的Page Rank</t>
+  </si>
+  <si>
+    <t>基于改进后Fish Search的Page Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +62,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,7 +105,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -153,8 +157,871 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>查准率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35428571428571426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>改进后的Fish Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51714285714285713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50375000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基于改进后Fish Search的Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62888888888888894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="304782696"/>
+        <c:axId val="304267072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="304782696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>抓取的页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304267072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="304267072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>查准率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304782696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>查准率</a:t>
+              <a:t>抓取与主题相关页面数对比</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -192,30 +1059,139 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10409423622047247"/>
-          <c:y val="0.18888888888888888"/>
-          <c:w val="0.88737243044619418"/>
-          <c:h val="0.60640347039953335"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Page Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fish Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -247,7 +1223,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -286,39 +1262,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet2!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46666666666666667</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44750000000000001</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42199999999999999</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38666666666666666</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35428571428571426</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30666666666666664</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28899999999999998</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -327,14 +1303,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fish Search</c:v>
+                  <c:v>改进后的Fish Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -366,7 +1342,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -405,39 +1381,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet2!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.505</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41749999999999998</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40600000000000003</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39333333333333331</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33888888888888891</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31900000000000001</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,14 +1422,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet2!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>改进后的Fish Search</c:v>
+                  <c:v>基于改进后Fish Search的Page Rank</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -483,7 +1459,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -522,156 +1498,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.60499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5575</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.51714285714285713</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.50375000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46500000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>改进后的组合算法</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet2!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.64200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64833333333333332</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63571428571428568</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63749999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.62888888888888894</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.61199999999999999</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,7 +1538,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -689,16 +1547,72 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="351158136"/>
-        <c:axId val="351160880"/>
+        <c:axId val="307946088"/>
+        <c:axId val="305843720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="351158136"/>
+        <c:axId val="307946088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>抓取的页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -736,7 +1650,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351160880"/>
+        <c:crossAx val="305843720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -744,7 +1658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351160880"/>
+        <c:axId val="305843720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +1678,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>与主题相关页面数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -801,7 +1771,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351158136"/>
+        <c:crossAx val="307946088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -814,7 +1784,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -922,6 +1892,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -1443,24 +2453,580 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1767,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1796,19 +3362,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1820,15 +3386,15 @@
         <v>0.59</v>
       </c>
       <c r="C2" s="1">
-        <f>F2/A2</f>
+        <f t="shared" ref="C2:C11" si="0">F2/A2</f>
         <v>0.6</v>
       </c>
       <c r="D2" s="1">
-        <f>G2/A2</f>
+        <f t="shared" ref="D2:D11" si="1">G2/A2</f>
         <v>0.65</v>
       </c>
       <c r="E2" s="1">
-        <f>H2/A2</f>
+        <f t="shared" ref="E2:E11" si="2">H2/A2</f>
         <v>0.77</v>
       </c>
       <c r="F2" s="3">
@@ -1849,19 +3415,19 @@
         <v>200</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B11" si="0">I3/A3</f>
+        <f t="shared" ref="B3:B11" si="3">I3/A3</f>
         <v>0.53</v>
       </c>
       <c r="C3" s="1">
-        <f>F3/A3</f>
+        <f t="shared" si="0"/>
         <v>0.505</v>
       </c>
       <c r="D3" s="1">
-        <f>G3/A3</f>
+        <f t="shared" si="1"/>
         <v>0.60499999999999998</v>
       </c>
       <c r="E3" s="1">
-        <f>H3/A3</f>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="F3" s="3">
@@ -1882,19 +3448,19 @@
         <v>300</v>
       </c>
       <c r="B4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="C4" s="1">
-        <f>F4/A4</f>
         <v>0.46</v>
       </c>
       <c r="D4" s="1">
-        <f>G4/A4</f>
+        <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
       <c r="E4" s="1">
-        <f>H4/A4</f>
+        <f t="shared" si="2"/>
         <v>0.69333333333333336</v>
       </c>
       <c r="F4" s="3">
@@ -1915,19 +3481,19 @@
         <v>400</v>
       </c>
       <c r="B5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.44750000000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <f>F5/A5</f>
         <v>0.41749999999999998</v>
       </c>
       <c r="D5" s="1">
-        <f>G5/A5</f>
+        <f t="shared" si="1"/>
         <v>0.5575</v>
       </c>
       <c r="E5" s="1">
-        <f>H5/A5</f>
+        <f t="shared" si="2"/>
         <v>0.67</v>
       </c>
       <c r="F5" s="3">
@@ -1948,19 +3514,19 @@
         <v>500</v>
       </c>
       <c r="B6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <f>F6/A6</f>
         <v>0.40600000000000003</v>
       </c>
       <c r="D6" s="1">
-        <f>G6/A6</f>
+        <f t="shared" si="1"/>
         <v>0.54400000000000004</v>
       </c>
       <c r="E6" s="1">
-        <f>H6/A6</f>
+        <f t="shared" si="2"/>
         <v>0.64200000000000002</v>
       </c>
       <c r="F6" s="3">
@@ -1981,19 +3547,19 @@
         <v>600</v>
       </c>
       <c r="B7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.38666666666666666</v>
-      </c>
-      <c r="C7" s="1">
-        <f>F7/A7</f>
         <v>0.39333333333333331</v>
       </c>
       <c r="D7" s="1">
-        <f>G7/A7</f>
+        <f t="shared" si="1"/>
         <v>0.52333333333333332</v>
       </c>
       <c r="E7" s="1">
-        <f>H7/A7</f>
+        <f t="shared" si="2"/>
         <v>0.64833333333333332</v>
       </c>
       <c r="F7" s="3">
@@ -2014,19 +3580,19 @@
         <v>700</v>
       </c>
       <c r="B8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35428571428571426</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.35428571428571426</v>
-      </c>
-      <c r="C8" s="1">
-        <f>F8/A8</f>
         <v>0.36</v>
       </c>
       <c r="D8" s="1">
-        <f>G8/A8</f>
+        <f t="shared" si="1"/>
         <v>0.51714285714285713</v>
       </c>
       <c r="E8" s="1">
-        <f>H8/A8</f>
+        <f t="shared" si="2"/>
         <v>0.63571428571428568</v>
       </c>
       <c r="F8" s="3">
@@ -2047,19 +3613,19 @@
         <v>800</v>
       </c>
       <c r="B9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C9" s="1">
-        <f>F9/A9</f>
         <v>0.35</v>
       </c>
       <c r="D9" s="1">
-        <f>G9/A9</f>
+        <f t="shared" si="1"/>
         <v>0.50375000000000003</v>
       </c>
       <c r="E9" s="1">
-        <f>H9/A9</f>
+        <f t="shared" si="2"/>
         <v>0.63749999999999996</v>
       </c>
       <c r="F9" s="3">
@@ -2080,19 +3646,19 @@
         <v>900</v>
       </c>
       <c r="B10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30666666666666664</v>
+      </c>
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.30666666666666664</v>
-      </c>
-      <c r="C10" s="1">
-        <f>F10/A10</f>
         <v>0.33888888888888891</v>
       </c>
       <c r="D10" s="1">
-        <f>G10/A10</f>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
       <c r="E10" s="1">
-        <f>H10/A10</f>
+        <f t="shared" si="2"/>
         <v>0.62888888888888894</v>
       </c>
       <c r="F10" s="3">
@@ -2113,19 +3679,19 @@
         <v>1000</v>
       </c>
       <c r="B11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="C11" s="1">
-        <f>F11/A11</f>
         <v>0.31900000000000001</v>
       </c>
       <c r="D11" s="1">
-        <f>G11/A11</f>
+        <f t="shared" si="1"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="E11" s="1">
-        <f>H11/A11</f>
+        <f t="shared" si="2"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="F11" s="3">
@@ -2183,15 +3749,15 @@
         <v>12.666666666666666</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" ref="G14:I14" si="1">G13/60</f>
+        <f t="shared" ref="G14:I14" si="4">G13/60</f>
         <v>11.833333333333334</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.166666666666666</v>
       </c>
     </row>
@@ -2201,15 +3767,15 @@
         <v>0.41973684210526313</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" ref="G15:I15" si="2">G11/G13</f>
+        <f t="shared" ref="G15:I15" si="5">G11/G13</f>
         <v>0.65492957746478875</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.68</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.36582278481012659</v>
       </c>
     </row>
@@ -2219,4 +3785,215 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3">
+        <v>106</v>
+      </c>
+      <c r="C3" s="3">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>121</v>
+      </c>
+      <c r="E3" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4" s="3">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3">
+        <v>138</v>
+      </c>
+      <c r="D4">
+        <v>177</v>
+      </c>
+      <c r="E4" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5" s="3">
+        <v>179</v>
+      </c>
+      <c r="C5" s="3">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>223</v>
+      </c>
+      <c r="E5" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" s="3">
+        <v>211</v>
+      </c>
+      <c r="C6" s="3">
+        <v>203</v>
+      </c>
+      <c r="D6">
+        <v>272</v>
+      </c>
+      <c r="E6" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7" s="3">
+        <v>232</v>
+      </c>
+      <c r="C7" s="3">
+        <v>236</v>
+      </c>
+      <c r="D7">
+        <v>314</v>
+      </c>
+      <c r="E7" s="3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8" s="3">
+        <v>248</v>
+      </c>
+      <c r="C8" s="3">
+        <v>252</v>
+      </c>
+      <c r="D8">
+        <v>362</v>
+      </c>
+      <c r="E8" s="3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9" s="3">
+        <v>260</v>
+      </c>
+      <c r="C9" s="3">
+        <v>280</v>
+      </c>
+      <c r="D9">
+        <v>403</v>
+      </c>
+      <c r="E9" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10" s="3">
+        <v>276</v>
+      </c>
+      <c r="C10" s="3">
+        <v>305</v>
+      </c>
+      <c r="D10">
+        <v>432</v>
+      </c>
+      <c r="E10" s="3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>289</v>
+      </c>
+      <c r="C11" s="3">
+        <v>319</v>
+      </c>
+      <c r="D11">
+        <v>465</v>
+      </c>
+      <c r="E11" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -681,16 +681,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="304782696"/>
-        <c:axId val="304267072"/>
+        <c:axId val="279420576"/>
+        <c:axId val="279420960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="304782696"/>
+        <c:axId val="279420576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -711,7 +725,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>抓取的页面数</a:t>
                 </a:r>
               </a:p>
@@ -784,7 +798,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304267072"/>
+        <c:crossAx val="279420960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -792,26 +806,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304267072"/>
+        <c:axId val="279420960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -905,7 +905,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304782696"/>
+        <c:crossAx val="279420576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -918,7 +918,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1020,10 +1020,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN"/>
               <a:t>抓取与主题相关页面数对比</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1547,16 +1546,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="307946088"/>
-        <c:axId val="305843720"/>
+        <c:axId val="279271144"/>
+        <c:axId val="279279720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="307946088"/>
+        <c:axId val="279271144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1577,7 +1590,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>抓取的页面数</a:t>
                 </a:r>
               </a:p>
@@ -1650,7 +1663,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305843720"/>
+        <c:crossAx val="279279720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1658,26 +1671,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305843720"/>
+        <c:axId val="279279720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1698,7 +1697,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>与主题相关页面数</a:t>
                 </a:r>
               </a:p>
@@ -1771,7 +1770,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307946088"/>
+        <c:crossAx val="279271144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1784,7 +1783,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3333,8 +3332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3791,7 +3790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基于改进后Fish Search的Page Rank</t>
-  </si>
-  <si>
-    <t>基于改进后Fish Search的Page Rank</t>
+    <t>基于页面主题的Page Rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +560,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基于改进后Fish Search的Page Rank</c:v>
+                  <c:v>基于页面主题的Page Rank</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -681,11 +678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279420576"/>
-        <c:axId val="279420960"/>
+        <c:axId val="202067024"/>
+        <c:axId val="202009360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279420576"/>
+        <c:axId val="202067024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +795,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279420960"/>
+        <c:crossAx val="202009360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279420960"/>
+        <c:axId val="202009360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +902,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279420576"/>
+        <c:crossAx val="202067024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1428,7 +1425,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>基于改进后Fish Search的Page Rank</c:v>
+                  <c:v>基于页面主题的Page Rank</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1546,11 +1543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279271144"/>
-        <c:axId val="279279720"/>
+        <c:axId val="202290048"/>
+        <c:axId val="202290704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279271144"/>
+        <c:axId val="202290048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1660,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279279720"/>
+        <c:crossAx val="202290704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1671,7 +1668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279279720"/>
+        <c:axId val="202290704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1767,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279271144"/>
+        <c:crossAx val="202290048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3332,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3361,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -3790,7 +3787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改进后的Fish Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +46,10 @@
   </si>
   <si>
     <t>基于页面主题的Page Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于关键词位置的Fish Search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +160,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -443,7 +442,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>改进后的Fish Search</c:v>
+                  <c:v>基于关键词位置的Fish Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -678,11 +677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202067024"/>
-        <c:axId val="202009360"/>
+        <c:axId val="219118792"/>
+        <c:axId val="219065760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202067024"/>
+        <c:axId val="219118792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +727,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -795,7 +793,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202009360"/>
+        <c:crossAx val="219065760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -803,7 +801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202009360"/>
+        <c:axId val="219065760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +833,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -902,7 +899,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202067024"/>
+        <c:crossAx val="219118792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,7 +913,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1306,7 +1302,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>改进后的Fish Search</c:v>
+                  <c:v>基于关键词位置的Fish Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1543,11 +1539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202290048"/>
-        <c:axId val="202290704"/>
+        <c:axId val="218275304"/>
+        <c:axId val="218275960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202290048"/>
+        <c:axId val="218275304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1656,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202290704"/>
+        <c:crossAx val="218275960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1668,7 +1664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202290704"/>
+        <c:axId val="218275960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1763,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202290048"/>
+        <c:crossAx val="218275304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3329,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3355,22 +3351,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -3787,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3804,10 +3800,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
